--- a/Feature Classifier Results.xlsx
+++ b/Feature Classifier Results.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +456,21 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>0.63329999999999997</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.63329999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -544,9 +556,24 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>0.63329999999999997</v>
+      </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="F12">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.63329999999999997</v>
       </c>
     </row>
   </sheetData>
